--- a/analysis/data/derived_data/flaking_intensity_and_shape_core.xlsx
+++ b/analysis/data/derived_data/flaking_intensity_and_shape_core.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6D1E06-9275-4C4E-B000-E0BC8779E8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A58153-092C-4446-90B3-5286A1D9126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
   </bookViews>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QSY_A_0682</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QSY_A_0699</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +176,10 @@
   </si>
   <si>
     <t>QSY_B_435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_2048</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,10 +187,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00000"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="181" formatCode="0.000000000_);[Red]\(0.000000000\)"/>
+    <numFmt numFmtId="183" formatCode="0.0000000"/>
+    <numFmt numFmtId="188" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +215,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -227,6 +232,21 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -262,11 +282,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -281,10 +307,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83ACE98-54F7-4A30-AA74-8E374145FFB7}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -613,43 +648,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3">
@@ -675,7 +710,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4">
@@ -701,7 +736,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5">
@@ -727,7 +762,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6">
@@ -753,7 +788,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7">
@@ -779,7 +814,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8">
@@ -805,320 +840,320 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>0.46947667936552151</v>
+        <v>0.88358380321716012</v>
       </c>
       <c r="D9">
-        <v>1.4379480619199417E-4</v>
+        <v>1.3927881917019825E-3</v>
       </c>
       <c r="E9">
-        <v>123.5848916814592</v>
+        <v>110.1463791213698</v>
       </c>
       <c r="F9">
-        <v>9.2195445714432296</v>
+        <v>7.3961464159544903</v>
       </c>
       <c r="G9" s="1">
-        <v>0.91667152267275898</v>
+        <v>0.88074504652137997</v>
       </c>
       <c r="H9" s="1">
-        <v>1.01039006872008</v>
+        <v>1.0248097727054499</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.35549301753773543</v>
+      </c>
+      <c r="D10">
+        <v>3.3541641461520681E-4</v>
+      </c>
+      <c r="E10">
+        <v>110.55873457679699</v>
+      </c>
+      <c r="F10">
+        <v>7.48663022869773</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.89339881930575105</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0171219342175599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>0.88358380321716012</v>
-      </c>
-      <c r="D10">
-        <v>1.3927881917019825E-3</v>
-      </c>
-      <c r="E10">
-        <v>110.1463791213698</v>
-      </c>
-      <c r="F10">
-        <v>7.3961464159544903</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.88074504652137997</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.0248097727054499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="C11">
+        <v>0.36129808529301366</v>
+      </c>
+      <c r="D11">
+        <v>3.8617980457361336E-4</v>
+      </c>
+      <c r="E11">
+        <v>96.777989742870048</v>
+      </c>
+      <c r="F11">
+        <v>9.1396434954948695</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.84191948715112197</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0424149452095499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0.71886866708912567</v>
+      </c>
+      <c r="D12">
+        <v>9.2481032287406763E-4</v>
+      </c>
+      <c r="E12">
+        <v>102.7742440429918</v>
+      </c>
+      <c r="F12">
+        <v>8.5442752772841093</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.86781159737379698</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.01993180730621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3.8276151951996381E-3</v>
+      </c>
+      <c r="E13">
+        <v>107.59010493048289</v>
+      </c>
+      <c r="F13">
+        <v>8.1382913832835708</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.86904570191028696</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.0271441801932499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0.86279592124610216</v>
+      </c>
+      <c r="D14">
+        <v>1.7851461687420128E-3</v>
+      </c>
+      <c r="E14">
+        <v>108.8294277897045</v>
+      </c>
+      <c r="F14">
+        <v>9.3873613388449293</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.87179809077771597</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.0227407691483601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>0.35549301753773543</v>
-      </c>
-      <c r="D11">
-        <v>3.3541641461520681E-4</v>
-      </c>
-      <c r="E11">
-        <v>110.55873457679699</v>
-      </c>
-      <c r="F11">
-        <v>7.48663022869773</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.89339881930575105</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.0171219342175599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>0.36129808529301366</v>
-      </c>
-      <c r="D12">
-        <v>3.8617980457361336E-4</v>
-      </c>
-      <c r="E12">
-        <v>96.777989742870048</v>
-      </c>
-      <c r="F12">
-        <v>9.1396434954948695</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.84191948715112197</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.0424149452095499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
+      <c r="C15">
+        <v>0.24574121291944417</v>
+      </c>
+      <c r="D15">
+        <v>5.2067071714158905E-4</v>
+      </c>
+      <c r="E15">
+        <v>119.3781694027394</v>
+      </c>
+      <c r="F15">
+        <v>5.0753898699124598</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.92740820588925599</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.0125298048507101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.94663171644813626</v>
+      </c>
+      <c r="D16">
+        <v>1.0553421578330835E-3</v>
+      </c>
+      <c r="E16">
+        <v>120.77878384227191</v>
+      </c>
+      <c r="F16">
+        <v>8.5044889705750197</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.86753010246267503</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.0367929940665901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0.97711635729271962</v>
+      </c>
+      <c r="D17">
+        <v>2.1370354480621384E-3</v>
+      </c>
+      <c r="E17">
+        <v>110.34456593558809</v>
+      </c>
+      <c r="F17">
+        <v>8.1462963930157404</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.86067729256230097</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.0312513807869299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0.89907028802889088</v>
+      </c>
+      <c r="D18">
+        <v>1.1211930590425872E-3</v>
+      </c>
+      <c r="E18">
+        <v>84.777020516277801</v>
+      </c>
+      <c r="F18">
+        <v>8.9512745628106103</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.79551953142328402</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.07534470537947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>0.71886866708912567</v>
-      </c>
-      <c r="D13">
-        <v>9.2481032287406763E-4</v>
-      </c>
-      <c r="E13">
-        <v>102.7742440429918</v>
-      </c>
-      <c r="F13">
-        <v>8.5442752772841093</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.86781159737379698</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.01993180730621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3.8276151951996381E-3</v>
-      </c>
-      <c r="E14">
-        <v>107.59010493048289</v>
-      </c>
-      <c r="F14">
-        <v>8.1382913832835708</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.86904570191028696</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.0271441801932499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>0.86279592124610216</v>
-      </c>
-      <c r="D15">
-        <v>1.7851461687420128E-3</v>
-      </c>
-      <c r="E15">
-        <v>108.8294277897045</v>
-      </c>
-      <c r="F15">
-        <v>9.3873613388449293</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.87179809077771597</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.0227407691483601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>0.24574121291944417</v>
-      </c>
-      <c r="D16">
-        <v>5.2067071714158905E-4</v>
-      </c>
-      <c r="E16">
-        <v>119.3781694027394</v>
-      </c>
-      <c r="F16">
-        <v>5.0753898699124598</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.92740820588925599</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.0125298048507101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="C19">
+        <v>0.73930777223886435</v>
+      </c>
+      <c r="D19">
+        <v>4.4543436517947567E-4</v>
+      </c>
+      <c r="E19">
+        <v>107.605315441146</v>
+      </c>
+      <c r="F19">
+        <v>8.7088046229500407</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.854708339976051</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.0189490023246699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="10">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>0.94663171644813626</v>
-      </c>
-      <c r="D17">
-        <v>1.0553421578330835E-3</v>
-      </c>
-      <c r="E17">
-        <v>120.77878384227191</v>
-      </c>
-      <c r="F17">
-        <v>8.5044889705750197</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.86753010246267503</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.0367929940665901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>0.97711635729271962</v>
-      </c>
-      <c r="D18">
-        <v>2.1370354480621384E-3</v>
-      </c>
-      <c r="E18">
-        <v>110.34456593558809</v>
-      </c>
-      <c r="F18">
-        <v>8.1462963930157404</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.86067729256230097</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.0312513807869299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>0.89907028802889088</v>
-      </c>
-      <c r="D19">
-        <v>1.1211930590425872E-3</v>
-      </c>
-      <c r="E19">
-        <v>84.777020516277801</v>
-      </c>
-      <c r="F19">
-        <v>8.9512745628106103</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.79551953142328402</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1.07534470537947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="C20" s="11">
+        <v>0.85107809733121453</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3.722518969026036E-4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>118.574342209842</v>
+      </c>
+      <c r="F20" s="11">
+        <v>8.1328470753614504</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.89114064489367595</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.0300395956189301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>0.73930777223886435</v>
-      </c>
-      <c r="D20">
-        <v>4.4543436517947567E-4</v>
-      </c>
-      <c r="E20">
-        <v>107.605315441146</v>
-      </c>
-      <c r="F20">
-        <v>8.7088046229500407</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.854708339976051</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.0189490023246699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -1143,8 +1178,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
+      <c r="A22" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1169,8 +1204,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>28</v>
+      <c r="A23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1195,8 +1230,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>29</v>
+      <c r="A24" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -1221,8 +1256,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>30</v>
+      <c r="A25" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1247,8 +1282,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>31</v>
+      <c r="A26" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -1273,8 +1308,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>32</v>
+      <c r="A27" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -1299,8 +1334,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>33</v>
+      <c r="A28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -1325,8 +1360,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>34</v>
+      <c r="A29" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -1351,8 +1386,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>35</v>
+      <c r="A30" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1377,8 +1412,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>36</v>
+      <c r="A31" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B31">
         <v>7</v>
